--- a/stage2_excels/SP/SP_kfold_one.xlsx
+++ b/stage2_excels/SP/SP_kfold_one.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xyz_y_percentile_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>xyz_y_percentile_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,27 +492,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>yuv_y_percentile_25</t>
+          <t>lab_l_25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.314885687968196</v>
+        <v>0.3146596279670251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lab_l_percentile_25</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3146596279670251</v>
+        <v>0.3142859189523469</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/SP/SP_kfold_one.xlsx
+++ b/stage2_excels/SP/SP_kfold_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,27 +492,2770 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3146596279670251</v>
+        <v>0.314885687968196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3146596279670251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>xyz_y_median</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.3142859189523469</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.311010474012528</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3062292475630245</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2840821167299922</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2256689838723557</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2102308665890484</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.209613247274871</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1939179021085774</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hsv_h_25</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1207689367419456</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09927370979264286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01792163577881971</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.09223217213532875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hsv_h_25</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.09621991085575905</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.1040331745783691</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1045427499041657</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1045427499041666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>lab_a_25</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1045427499041707</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1047576877695779</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1592240286852616</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1679049743802603</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1876017865825666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.2041723346070706</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2173028894973889</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.2279602644602205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2334633596313413</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.2943541825017591</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.3099954445748312</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.3235493860001374</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.3426861472270137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.3671064876483213</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>lab_a_mean</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.4340269881948076</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.4698665692457306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>xyz_z_mean</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.5229801495869479</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.5411567575944921</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.6249268014715654</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.6773872652922269</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.7104724545211161</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.725839483642823</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>hsv_v_75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.7351386013621694</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.737918017664575</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>xyz_x_median</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.7619165170213549</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.8472232495661987</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.8512643336560327</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.8832072877635792</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.9392891615935668</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.037020335358566</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.048180884221324</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>lab_l_median</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.087475447091298</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.212898892347793</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>xyz_z_median</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.220262508166222</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.312294203438986</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>lab_b_25</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.34700186236327</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.351518581737767</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.393099641687507</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.487604374134196</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.492712922013212</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.546984290996269</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>hsv_h_25</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.594211927737718</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>hsv_v_median</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.643194849667004</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>xyz_y_median</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.677331398178756</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.68350265629922</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.685980664848382</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.701502826421876</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.729712310723927</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.747284961467062</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.757700998199664</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>lab_l_25</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.766620034181634</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.774833679754374</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.78954528204894</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.829030925210383</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>xyz_x_75</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.861169405268845</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.865740354417779</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>hsv_s_75</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.876568464200117</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>xyz_y_25</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.879167673021756</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.900204917713325</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>hsv_s_mean</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.904858443897011</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.955103598642597</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>hsv_v_mean</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.965721297517983</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>hsv_s_variance</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-2.020098011201886</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.125485515094991</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>hsv_s_std_dev</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.138295158035834</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-2.339257224111988</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-2.354680299090433</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-2.395032518472022</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>hsv_h_std_dev</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-2.419293570806834</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>xyz_x_25</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2.427972022006215</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-2.734653462589997</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-2.792714458052546</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.803352823538744</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-2.807974486049691</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>hsv_h_variance</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-2.818004503256048</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>lab_b_mean</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-2.830223256444228</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-2.836145473055779</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>xyz_z_mean</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-2.855203184642593</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-2.880552296211969</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-2.898402833294875</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.925789344588186</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>xyz_x_mean</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-2.930326456545719</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-3.089122334367607</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>lab_l_mean</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.155421229298966</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-3.274433262107026</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-3.309946228621869</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-3.403089033416853</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>hsv_s_25</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-3.430514680853659</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-3.478483748830167</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-3.661435672630957</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-3.733227694414405</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-3.759003556854263</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-3.784926615534113</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>xyz_x_std_dev</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-4.015107271841509</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-4.11135847890078</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-4.180378109112757</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-4.324606781818328</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>xyz_x_variance</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-4.436687975343149</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>xyz_z_median</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-4.491164308430747</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-4.50923159006638</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-4.528364957455206</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-4.54257968386573</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-4.555293430230924</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-4.587255153450307</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-4.602844023786979</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-4.652636066916013</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>xyz_y_mean</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-4.674489751962015</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-4.728159437674331</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>xyz_z_variance</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-5.091020930371101</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-5.124680228461351</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>xyz_z_std_dev</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-5.215656500293274</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>xyz_z_25</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-5.457676919859039</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-5.663546755841339</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>hsv_v_25</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-5.689628002626568</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-6.038874971630226</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-6.141572249093196</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-6.190329940360241</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-6.277414811947973</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-6.427353714119373</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>lab_a_median</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-6.434510116110827</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-6.457740938288437</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-6.470907736665207</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-6.915274118320025</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-7.022327794623202</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>lab_a_std_dev</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-7.312120735057187</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-8.180420816809999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-8.37713510326445</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-8.49893183268756</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-8.797081542786795</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-8.925724183495761</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-8.931299137980879</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-9.036679194166803</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-9.373564968931813</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-9.403256816489485</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-9.41507173081386</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>hsv_h_median</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-9.466086967161127</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-9.487023451311885</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>xyz_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-9.577734718349735</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-9.605575011656004</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-9.694517050628045</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-9.771815919875298</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-10.05398115269287</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-10.15848281073963</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-10.17561257517811</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-10.53718678775593</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>lab_b_75</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-10.6479530548538</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-10.67230308508333</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-10.94724675190523</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-11.13168348704651</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-11.73096963561943</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-11.78449888119149</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-12.60113819462392</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-13.36059552851007</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>lab_b_std_dev</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-13.42742581464579</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>lab_b_variance</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-13.45020403096028</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>lab_l_75</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-14.1265330279485</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>xyz_y_variance</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-14.32674152157006</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-15.12815950544819</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-15.25860811342854</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>lab_a_75</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-15.52298290797948</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-15.65311457314957</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>xyz_y_75</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-16.81341953286323</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>lab_l_std_dev</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-19.11144226118079</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-20.44339619205924</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>xyz_z_mean</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-21.16392802399673</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>xyz_z_75</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-22.10684455035842</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-22.71483350712804</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>xyz_z_median</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-22.85762531154824</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-25.6226055413704</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-26.20289656706075</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-26.40487464409687</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-27.42649105263427</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-31.54567272261597</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-31.72064554093936</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>lab_l_variance</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-38.75223514502694</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-47.97288539845627</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>lab_b_median</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-49.43307820286024</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-63.2901616544501</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-68.58779858619519</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-68.67939152569647</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-70.22269514103279</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>hsv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>3</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-103.5596301165217</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>lab_a_variance</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-116.2472410320199</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>hsv_h_75</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-233.7962001982629</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>hsv_v_variance</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-498.1859924975764</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-1204.806692938341</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>hsv_h_mean</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-11166.37528076076</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/SP/SP_kfold_one.xlsx
+++ b/stage2_excels/SP/SP_kfold_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,456 +505,456 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3146596279670251</v>
+        <v>0.3142859189523469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3142859189523469</v>
+        <v>0.311010474012528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.311010474012528</v>
+        <v>0.3062292475630245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3062292475630245</v>
+        <v>0.2102308665890484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2840821167299922</v>
+        <v>0.209613247274871</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2256689838723557</v>
+        <v>0.1939179021085774</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2102308665890484</v>
+        <v>0.1207689367419456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.209613247274871</v>
+        <v>0.09927370979264286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1939179021085774</v>
+        <v>0.01792163577881971</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hsv_h_25</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1207689367419456</v>
+        <v>-0.09223217213532875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09927370979264286</v>
+        <v>-0.09621991085575905</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01792163577881971</v>
+        <v>-0.1040331745783691</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09223217213532875</v>
+        <v>-0.1047576877695779</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hsv_h_25</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09621991085575905</v>
+        <v>-0.1592240286852616</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1040331745783691</v>
+        <v>-0.1679049743802603</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1045427499041657</v>
+        <v>-0.2173028894973889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1045427499041666</v>
+        <v>-0.2279602644602205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1045427499041707</v>
+        <v>-0.2943541825017591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1047576877695779</v>
+        <v>-0.3099954445748312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1592240286852616</v>
+        <v>-0.3235493860001374</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1679049743802603</v>
+        <v>-0.3426861472270137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1876017865825666</v>
+        <v>-0.3671064876483213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2041723346070706</v>
+        <v>-0.4698665692457306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>xyz_z_25</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2173028894973889</v>
+        <v>-0.5229801495869479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2279602644602205</v>
+        <v>-0.5411567575944921</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2334633596313413</v>
+        <v>-0.6249268014715654</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2943541825017591</v>
+        <v>-0.6773872652922269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hsv_v_variance</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3099954445748312</v>
+        <v>-0.725839483642823</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>xyz_z_25</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.3235493860001374</v>
+        <v>-0.7351386013621694</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.3426861472270137</v>
+        <v>-0.737918017664575</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3671064876483213</v>
+        <v>-0.7619165170213549</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4340269881948076</v>
+        <v>-0.8472232495661987</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>yuv_u_25</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.4698665692457306</v>
+        <v>-0.8512643336560327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.5229801495869479</v>
+        <v>-0.8832072877635792</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.5411567575944921</v>
+        <v>-0.9392891615935668</v>
       </c>
     </row>
     <row r="41">
@@ -964,387 +964,387 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.6249268014715654</v>
+        <v>-1.037020335358566</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.6773872652922269</v>
+        <v>-1.048180884221324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.7104724545211161</v>
+        <v>-1.212898892347793</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.725839483642823</v>
+        <v>-1.220262508166222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hsv_v_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.7351386013621694</v>
+        <v>-1.312294203438986</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.737918017664575</v>
+        <v>-1.34700186236327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>xyz_x_median</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7619165170213549</v>
+        <v>-1.34700186236327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8472232495661987</v>
+        <v>-1.34700186236327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.8512643336560327</v>
+        <v>-1.34700186236327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.8832072877635792</v>
+        <v>-1.34700186236327</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.9392891615935668</v>
+        <v>-1.34700186236327</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.037020335358566</v>
+        <v>-1.351518581737767</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.048180884221324</v>
+        <v>-1.393099641687507</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.087475447091298</v>
+        <v>-1.487604374134196</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.212898892347793</v>
+        <v>-1.492712922013212</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.220262508166222</v>
+        <v>-1.546984290996269</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.312294203438986</v>
+        <v>-1.594211927737718</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.643194849667004</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.677331398178756</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.68350265629922</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.685980664848382</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.701502826421876</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>yuv_u_75</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.729712310723927</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.747284961467062</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.757700998199664</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>yuv_v_25</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.34700186236327</v>
+        <v>-1.774833679754374</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.351518581737767</v>
+        <v>-1.78954528204894</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>yuv_y_25</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.393099641687507</v>
+        <v>-1.829030925210383</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.487604374134196</v>
+        <v>-1.861169405268845</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.492712922013212</v>
+        <v>-1.865740354417779</v>
       </c>
     </row>
     <row r="71">
@@ -1354,816 +1354,816 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.546984290996269</v>
+        <v>-1.876568464200117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hsv_h_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.594211927737718</v>
+        <v>-1.879167673021756</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.643194849667004</v>
+        <v>-1.900204917713325</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>xyz_y_median</t>
+          <t>hsv_s_mean</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.677331398178756</v>
+        <v>-1.904858443897011</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.68350265629922</v>
+        <v>-1.955103598642597</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>hsv_v_mean</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.685980664848382</v>
+        <v>-1.965721297517983</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>hsv_s_variance</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.701502826421876</v>
+        <v>-2.020098011201886</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>hsv_s_std_dev</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.729712310723927</v>
+        <v>-2.138295158035834</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.747284961467062</v>
+        <v>-2.339257224111988</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>hsv_h_std_dev</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.757700998199664</v>
+        <v>-2.419293570806834</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.766620034181634</v>
+        <v>-2.427972022006215</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.774833679754374</v>
+        <v>-2.734653462589997</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.78954528204894</v>
+        <v>-2.792714458052546</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.829030925210383</v>
+        <v>-2.803352823538744</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>xyz_x_75</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.861169405268845</v>
+        <v>-2.807974486049691</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.865740354417779</v>
+        <v>-2.818004503256048</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>hsv_s_75</t>
+          <t>hsv_s_median</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.876568464200117</v>
+        <v>-2.836145473055779</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>xyz_y_25</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.879167673021756</v>
+        <v>-2.855203184642593</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.900204917713325</v>
+        <v>-2.880552296211969</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.904858443897011</v>
+        <v>-2.898402833294875</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>yuv_u_mean</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.955103598642597</v>
+        <v>-2.930326456545719</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>hsv_v_mean</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.965721297517983</v>
+        <v>-3.274433262107026</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>hsv_s_variance</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.020098011201886</v>
+        <v>-3.403089033416853</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.125485515094991</v>
+        <v>-3.430514680853659</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>hsv_s_std_dev</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>-2.138295158035834</v>
+        <v>-3.478483748830167</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.339257224111988</v>
+        <v>-3.661435672630957</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.354680299090433</v>
+        <v>-3.733227694414405</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-2.395032518472022</v>
+        <v>-3.759003556854263</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>hsv_h_std_dev</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.419293570806834</v>
+        <v>-3.784926615534113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>xyz_x_25</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.427972022006215</v>
+        <v>-4.015107271841509</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.734653462589997</v>
+        <v>-4.11135847890078</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>hsv_v_std_dev</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-2.792714458052546</v>
+        <v>-4.180378109112757</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.803352823538744</v>
+        <v>-4.324606781818328</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.807974486049691</v>
+        <v>-4.436687975343149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.818004503256048</v>
+        <v>-4.491164308430747</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.830223256444228</v>
+        <v>-4.50923159006638</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>hsv_s_median</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.836145473055779</v>
+        <v>-4.528364957455206</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>xyz_z_mean</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>-2.855203184642593</v>
+        <v>-4.555293430230924</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>hsv_h_75</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-2.880552296211969</v>
+        <v>-4.587255153450307</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.898402833294875</v>
+        <v>-4.652636066916013</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.925789344588186</v>
+        <v>-4.674489751962015</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>xyz_x_mean</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.930326456545719</v>
+        <v>-4.728159437674331</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>-3.089122334367607</v>
+        <v>-5.091020930371101</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.155421229298966</v>
+        <v>-5.215656500293274</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>xyz_z_75</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>-3.274433262107026</v>
+        <v>-5.457676919859039</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-3.309946228621869</v>
+        <v>-5.689628002626568</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>yuv_v_mean</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.403089033416853</v>
+        <v>-6.141572249093196</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>hsv_s_25</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>-3.430514680853659</v>
+        <v>-6.190329940360241</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>hsv_h_median</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>-3.478483748830167</v>
+        <v>-6.427353714119373</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>-3.661435672630957</v>
+        <v>-6.470907736665207</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>-3.733227694414405</v>
+        <v>-6.915274118320025</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>-3.759003556854263</v>
+        <v>-8.180420816809999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-3.784926615534113</v>
+        <v>-8.37713510326445</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>xyz_x_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.015107271841509</v>
+        <v>-8.49893183268756</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>-4.11135847890078</v>
+        <v>-8.797081542786795</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>-4.180378109112757</v>
+        <v>-8.925724183495761</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>-4.324606781818328</v>
+        <v>-8.931299137980879</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>xyz_x_variance</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>-4.436687975343149</v>
+        <v>-9.373564968931813</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>hsv_h_median</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.491164308430747</v>
+        <v>-9.466086967161127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.50923159006638</v>
+        <v>-9.487023451311885</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>-4.528364957455206</v>
+        <v>-9.577734718349735</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>-4.54257968386573</v>
+        <v>-9.605575011656004</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>-4.555293430230924</v>
+        <v>-9.694517050628045</v>
       </c>
     </row>
     <row r="134">
@@ -2173,1088 +2173,386 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>-4.587255153450307</v>
+        <v>-10.05398115269287</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.602844023786979</v>
+        <v>-10.15848281073963</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.652636066916013</v>
+        <v>-10.17561257517811</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.674489751962015</v>
+        <v>-10.53718678775593</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>-4.728159437674331</v>
+        <v>-10.67230308508333</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>xyz_z_variance</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>-5.091020930371101</v>
+        <v>-10.94724675190523</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.124680228461351</v>
+        <v>-11.13168348704651</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>xyz_z_std_dev</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>-5.215656500293274</v>
+        <v>-14.32674152157006</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>xyz_z_25</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>-5.457676919859039</v>
+        <v>-15.25860811342854</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-5.663546755841339</v>
+        <v>-15.65311457314957</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>hsv_v_25</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>-5.689628002626568</v>
+        <v>-16.81341953286323</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>-6.038874971630226</v>
+        <v>-20.44339619205924</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>xyz_y_variance</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>-6.141572249093196</v>
+        <v>-21.16392802399673</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>yuv_y_variance</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>-6.190329940360241</v>
+        <v>-22.10684455035842</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>-6.277414811947973</v>
+        <v>-22.71483350712804</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>xyz_y_std_dev</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>-6.427353714119373</v>
+        <v>-22.85762531154824</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-6.434510116110827</v>
+        <v>-26.20289656706075</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>-6.457740938288437</v>
+        <v>-26.40487464409687</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>yuv_y_std_dev</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>-6.470907736665207</v>
+        <v>-27.42649105263427</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>-6.915274118320025</v>
+        <v>-31.54567272261597</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>-7.022327794623202</v>
+        <v>-31.72064554093936</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>-7.312120735057187</v>
+        <v>-63.2901616544501</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>-8.180420816809999</v>
+        <v>-68.58779858619519</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>-8.37713510326445</v>
+        <v>-68.67939152569647</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>-8.49893183268756</v>
+        <v>-70.22269514103279</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>yuv_y_75</t>
+          <t>hsv_v_std_dev</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>-8.797081542786795</v>
+        <v>-103.5596301165217</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>xyz_y_75</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>-8.925724183495761</v>
+        <v>-233.7962001982629</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>yuv_u_variance</t>
+          <t>hsv_v_variance</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>-8.931299137980879</v>
+        <v>-498.1859924975764</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>-9.036679194166803</v>
+        <v>-1204.806692938341</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>yuv_u_median</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>-9.373564968931813</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-9.403256816489485</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>2</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-9.41507173081386</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>hsv_h_median</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-9.466086967161127</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-9.487023451311885</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>xyz_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-9.577734718349735</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>xyz_y_75</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>2</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-9.605575011656004</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-9.694517050628045</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>lab_a_75</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-9.771815919875298</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>3</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-10.05398115269287</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-10.15848281073963</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-10.17561257517811</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-10.53718678775593</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>lab_b_75</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>3</v>
-      </c>
-      <c r="C176" t="n">
-        <v>-10.6479530548538</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2</v>
-      </c>
-      <c r="C177" t="n">
-        <v>-10.67230308508333</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>hsv_v_variance</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2</v>
-      </c>
-      <c r="C178" t="n">
-        <v>-10.94724675190523</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>3</v>
-      </c>
-      <c r="C179" t="n">
-        <v>-11.13168348704651</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>lab_b_std_dev</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>-11.73096963561943</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>lab_b_variance</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="n">
-        <v>-11.78449888119149</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>lab_b_std_dev</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>3</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-12.60113819462392</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>lab_b_variance</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-13.36059552851007</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>lab_b_std_dev</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>2</v>
-      </c>
-      <c r="C184" t="n">
-        <v>-13.42742581464579</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>lab_b_variance</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>2</v>
-      </c>
-      <c r="C185" t="n">
-        <v>-13.45020403096028</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>lab_l_75</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="n">
-        <v>-14.1265330279485</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>xyz_y_variance</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>-14.32674152157006</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>lab_a_75</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>3</v>
-      </c>
-      <c r="C188" t="n">
-        <v>-15.12815950544819</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>3</v>
-      </c>
-      <c r="C189" t="n">
-        <v>-15.25860811342854</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>lab_a_75</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2</v>
-      </c>
-      <c r="C190" t="n">
-        <v>-15.52298290797948</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>yuv_y_75</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>1</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-15.65311457314957</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>xyz_y_75</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>-16.81341953286323</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>lab_l_std_dev</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-19.11144226118079</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>3</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-20.44339619205924</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>xyz_z_mean</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>3</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-21.16392802399673</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>xyz_z_75</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>3</v>
-      </c>
-      <c r="C196" t="n">
-        <v>-22.10684455035842</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>2</v>
-      </c>
-      <c r="C197" t="n">
-        <v>-22.71483350712804</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>xyz_z_median</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>3</v>
-      </c>
-      <c r="C198" t="n">
-        <v>-22.85762531154824</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>lab_b_median</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>3</v>
-      </c>
-      <c r="C199" t="n">
-        <v>-25.6226055413704</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-26.20289656706075</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>hsv_h_75</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>2</v>
-      </c>
-      <c r="C201" t="n">
-        <v>-26.40487464409687</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>-27.42649105263427</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>hsv_h_mean</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>1</v>
-      </c>
-      <c r="C203" t="n">
-        <v>-31.54567272261597</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1</v>
-      </c>
-      <c r="C204" t="n">
-        <v>-31.72064554093936</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>lab_l_variance</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>3</v>
-      </c>
-      <c r="C205" t="n">
-        <v>-38.75223514502694</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>lab_b_median</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>2</v>
-      </c>
-      <c r="C206" t="n">
-        <v>-47.97288539845627</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>lab_b_median</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>-49.43307820286024</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>2</v>
-      </c>
-      <c r="C208" t="n">
-        <v>-63.2901616544501</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>3</v>
-      </c>
-      <c r="C209" t="n">
-        <v>-68.58779858619519</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2</v>
-      </c>
-      <c r="C210" t="n">
-        <v>-68.67939152569647</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>3</v>
-      </c>
-      <c r="C211" t="n">
-        <v>-70.22269514103279</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>hsv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>3</v>
-      </c>
-      <c r="C212" t="n">
-        <v>-103.5596301165217</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>lab_a_variance</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>3</v>
-      </c>
-      <c r="C213" t="n">
-        <v>-116.2472410320199</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>hsv_h_75</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>3</v>
-      </c>
-      <c r="C214" t="n">
-        <v>-233.7962001982629</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>hsv_v_variance</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>3</v>
-      </c>
-      <c r="C215" t="n">
-        <v>-498.1859924975764</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>hsv_h_mean</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-1204.806692938341</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>hsv_h_mean</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>3</v>
-      </c>
-      <c r="C217" t="n">
         <v>-11166.37528076076</v>
       </c>
     </row>

--- a/stage2_excels/SP/SP_kfold_one.xlsx
+++ b/stage2_excels/SP/SP_kfold_one.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5559123744656673</v>
+        <v>0.5559123744654819</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5375893127084502</v>
+        <v>0.5375893127084396</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5347011501119294</v>
+        <v>0.5347011501119142</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.314885687968196</v>
+        <v>0.3148856879444725</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3142859189523469</v>
+        <v>0.3142859189524635</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.311010474012528</v>
+        <v>0.31101047401253</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3062292475630245</v>
+        <v>0.3062292475436537</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2102308665890484</v>
+        <v>0.2102308665891355</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.209613247274871</v>
+        <v>0.2096132472751684</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1939179021085774</v>
+        <v>0.193917902107086</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1207689367419456</v>
+        <v>0.1207689367419472</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09927370979264286</v>
+        <v>0.09927370979275411</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01792163577881971</v>
+        <v>0.01792163577897656</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09223217213532875</v>
+        <v>-0.09223217211506216</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.09621991085575905</v>
+        <v>-0.09621991085563841</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1040331745783691</v>
+        <v>-0.1040331745783695</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1047576877695779</v>
+        <v>-0.1047576877696002</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1592240286852616</v>
+        <v>-0.1592240286852799</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1679049743802603</v>
+        <v>-0.1679049743842806</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2173028894973889</v>
+        <v>-0.2173028895113107</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2279602644602205</v>
+        <v>-0.2279602644602379</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2943541825017591</v>
+        <v>-0.2943541825017693</v>
       </c>
     </row>
     <row r="24">
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3235493860001374</v>
+        <v>-0.3235493859998738</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3426861472270137</v>
+        <v>-0.3426861472270135</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3671064876483213</v>
+        <v>-0.3671064876812886</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4698665692457306</v>
+        <v>-0.4698665588682939</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.5229801495869479</v>
+        <v>-0.5229801495868651</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5411567575944921</v>
+        <v>-0.5411567575944922</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.6249268014715654</v>
+        <v>-0.6249268014717415</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.6773872652922269</v>
+        <v>-0.6773872652922253</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.725839483642823</v>
+        <v>-0.7258394836052958</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.7351386013621694</v>
+        <v>-0.7351386013621697</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.737918017664575</v>
+        <v>-0.7379180176647436</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7619165170213549</v>
+        <v>-0.7619165170213538</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8472232495661987</v>
+        <v>-0.8472232495982647</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.8512643336560327</v>
+        <v>-0.8512643336562601</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.8832072877635792</v>
+        <v>-0.8832072882023633</v>
       </c>
     </row>
     <row r="40">
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.048180884221324</v>
+        <v>-1.048180884221362</v>
       </c>
     </row>
     <row r="43">
@@ -1006,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.220262508166222</v>
+        <v>-1.220262508165699</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.312294203438986</v>
+        <v>-1.312294203417032</v>
       </c>
     </row>
     <row r="46">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.393099641687507</v>
+        <v>-1.393099641687508</v>
       </c>
     </row>
     <row r="54">
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.492712922013212</v>
+        <v>-1.492712922013211</v>
       </c>
     </row>
     <row r="56">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.643194849667004</v>
+        <v>-1.643194849666993</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.677331398178756</v>
+        <v>-1.677331398178752</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.68350265629922</v>
+        <v>-1.683502656299215</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.685980664848382</v>
+        <v>-1.685980664848244</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.701502826421876</v>
+        <v>-1.701502826421875</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.729712310723927</v>
+        <v>-1.729712310722582</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.747284961467062</v>
+        <v>-1.747284961467396</v>
       </c>
     </row>
     <row r="65">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.774833679754374</v>
+        <v>-1.774833679754379</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.78954528204894</v>
+        <v>-1.789545282048945</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.829030925210383</v>
+        <v>-1.829030925210305</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.861169405268845</v>
+        <v>-1.861169405268846</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.865740354417779</v>
+        <v>-1.865740354417788</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.876568464200117</v>
+        <v>-1.876568464245176</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.879167673021756</v>
+        <v>-1.879167673021753</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.900204917713325</v>
+        <v>-1.900204917713324</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.904858443897011</v>
+        <v>-1.904858443888851</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.955103598642597</v>
+        <v>-1.955103605532618</v>
       </c>
     </row>
     <row r="76">
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.020098011201886</v>
+        <v>-2.020098011951837</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>-2.138295158035834</v>
+        <v>-2.138295158029583</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.339257224111988</v>
+        <v>-2.339257224111993</v>
       </c>
     </row>
     <row r="80">
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.734653462589997</v>
+        <v>-2.734653462589995</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.792714458052546</v>
+        <v>-2.792714458052428</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.803352823538744</v>
+        <v>-2.803352823538758</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.807974486049691</v>
+        <v>-2.807974486049694</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.818004503256048</v>
+        <v>-2.818004503729797</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.836145473055779</v>
+        <v>-2.836145473106133</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-2.855203184642593</v>
+        <v>-2.855203184642603</v>
       </c>
     </row>
     <row r="89">
@@ -1604,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>-2.898402833294875</v>
+        <v>-2.898402833294653</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.930326456545719</v>
+        <v>-2.930326456613046</v>
       </c>
     </row>
     <row r="92">
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>-3.403089033416853</v>
+        <v>-3.403089005173951</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>-3.430514680853659</v>
+        <v>-3.43051468065008</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>-3.478483748830167</v>
+        <v>-3.478483748841231</v>
       </c>
     </row>
     <row r="96">
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.733227694414405</v>
+        <v>-3.733227694423859</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-3.759003556854263</v>
+        <v>-3.759003556854262</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>-3.784926615534113</v>
+        <v>-3.784926615534013</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.015107271841509</v>
+        <v>-4.015107271803776</v>
       </c>
     </row>
     <row r="101">
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.180378109112757</v>
+        <v>-4.180378109112756</v>
       </c>
     </row>
     <row r="103">
@@ -1786,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>-4.436687975343149</v>
+        <v>-4.436687952470014</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.491164308430747</v>
+        <v>-4.491164308430744</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.50923159006638</v>
+        <v>-4.50923158957163</v>
       </c>
     </row>
     <row r="107">
@@ -1838,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>-4.555293430230924</v>
+        <v>-4.555293430226504</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-4.587255153450307</v>
+        <v>-4.587255153450305</v>
       </c>
     </row>
     <row r="110">
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>-4.652636066916013</v>
+        <v>-4.652636066915963</v>
       </c>
     </row>
     <row r="111">
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.674489751962015</v>
+        <v>-4.674489752144622</v>
       </c>
     </row>
     <row r="112">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>-4.728159437674331</v>
+        <v>-4.728159437674329</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.091020930371101</v>
+        <v>-5.091020967272781</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>-5.215656500293274</v>
+        <v>-5.215656500354814</v>
       </c>
     </row>
     <row r="115">
@@ -1955,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.141572249093196</v>
+        <v>-6.141572249095932</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>-6.190329940360241</v>
+        <v>-6.190329940372368</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.427353714119373</v>
+        <v>-6.427353714118988</v>
       </c>
     </row>
     <row r="120">
@@ -1994,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.470907736665207</v>
+        <v>-6.470907736664546</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.915274118320025</v>
+        <v>-6.915274118313161</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.180420816809999</v>
+        <v>-8.180420816072445</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-8.37713510326445</v>
+        <v>-8.377135103264447</v>
       </c>
     </row>
     <row r="124">
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>-8.797081542786795</v>
+        <v>-8.797081542787195</v>
       </c>
     </row>
     <row r="126">
@@ -2072,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>-8.925724183495761</v>
+        <v>-8.925724183115683</v>
       </c>
     </row>
     <row r="127">
@@ -2085,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>-8.931299137980879</v>
+        <v>-8.931299137778549</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>-9.373564968931813</v>
+        <v>-9.373565069736591</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-9.466086967161127</v>
+        <v>-9.466086967161123</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>-9.487023451311885</v>
+        <v>-9.487023451311888</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>-9.577734718349735</v>
+        <v>-9.577734718330271</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>-9.605575011656004</v>
+        <v>-9.605575011656079</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>-9.694517050628045</v>
+        <v>-9.69451705062327</v>
       </c>
     </row>
     <row r="134">
@@ -2176,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>-10.05398115269287</v>
+        <v>-10.05398115284468</v>
       </c>
     </row>
     <row r="135">
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>-10.17561257517811</v>
+        <v>-10.17561257517807</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>-10.53718678775593</v>
+        <v>-10.5371867877559</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>-10.67230308508333</v>
+        <v>-10.67230308507663</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>-10.94724675190523</v>
+        <v>-10.94724675192084</v>
       </c>
     </row>
     <row r="140">
@@ -2254,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>-11.13168348704651</v>
+        <v>-11.13168346870684</v>
       </c>
     </row>
     <row r="141">
@@ -2267,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>-14.32674152157006</v>
+        <v>-14.32674142064244</v>
       </c>
     </row>
     <row r="142">
@@ -2280,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>-15.25860811342854</v>
+        <v>-15.25860830533034</v>
       </c>
     </row>
     <row r="143">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-15.65311457314957</v>
+        <v>-15.65311457314958</v>
       </c>
     </row>
     <row r="144">
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>-16.81341953286323</v>
+        <v>-16.81341953286324</v>
       </c>
     </row>
     <row r="145">
@@ -2319,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>-20.44339619205924</v>
+        <v>-20.4433958602731</v>
       </c>
     </row>
     <row r="146">
@@ -2332,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>-21.16392802399673</v>
+        <v>-21.16392802415942</v>
       </c>
     </row>
     <row r="147">
@@ -2345,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>-22.10684455035842</v>
+        <v>-22.10684455080602</v>
       </c>
     </row>
     <row r="148">
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>-22.71483350712804</v>
+        <v>-22.71483350713471</v>
       </c>
     </row>
     <row r="149">
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>-22.85762531154824</v>
+        <v>-22.85762531050001</v>
       </c>
     </row>
     <row r="150">
@@ -2397,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>-26.40487464409687</v>
+        <v>-26.40487464409727</v>
       </c>
     </row>
     <row r="152">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>-31.54567272261597</v>
+        <v>-31.54567272261596</v>
       </c>
     </row>
     <row r="154">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>-31.72064554093936</v>
+        <v>-31.72064554093937</v>
       </c>
     </row>
     <row r="155">
@@ -2449,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>-63.2901616544501</v>
+        <v>-63.29016165445021</v>
       </c>
     </row>
     <row r="156">
@@ -2462,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>-68.58779858619519</v>
+        <v>-68.58779858612594</v>
       </c>
     </row>
     <row r="157">
@@ -2475,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>-68.67939152569647</v>
+        <v>-68.67939152569775</v>
       </c>
     </row>
     <row r="158">
@@ -2488,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>-70.22269514103279</v>
+        <v>-70.22269514103782</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>-103.5596301165217</v>
+        <v>-103.5596301129896</v>
       </c>
     </row>
     <row r="160">
@@ -2514,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>-233.7962001982629</v>
+        <v>-233.7962002019581</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>-498.1859924975764</v>
+        <v>-498.1859982963811</v>
       </c>
     </row>
     <row r="162">
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>-1204.806692938341</v>
+        <v>-1204.806692938307</v>
       </c>
     </row>
     <row r="163">
@@ -2553,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>-11166.37528076076</v>
+        <v>-11166.37528082327</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>